--- a/files/MercadoHipotecas.xlsx
+++ b/files/MercadoHipotecas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AE1E4-A8AA-9B44-9FBF-53C8C37A4A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345213F-F039-1043-9D6A-D60BECF56416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="17200" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>CCAA</t>
   </si>
@@ -87,112 +87,10 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
     <t>Personas</t>
   </si>
   <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
-  </si>
-  <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
   </si>
   <si>
     <t>Estadísticas financieras y monetarias.
@@ -535,9 +433,6 @@
   </si>
   <si>
     <t>Comunidades y Ciudades</t>
-  </si>
-  <si>
-    <t>MercadoHipotecas</t>
   </si>
   <si>
     <t>IOE + Operación estadística</t>
@@ -669,12 +564,174 @@
       <t>4.Interpretar componentes y resultados.</t>
     </r>
   </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,8 +801,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,24 +835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +859,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1110,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1036,27 +1152,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1248,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1431,93 +1593,93 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -1528,86 +1690,86 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1623,7 +1785,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1636,48 +1798,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>125015.71871956602</v>
@@ -1721,7 +1883,7 @@
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>124091.56704361874</v>
@@ -1765,7 +1927,7 @@
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>104137.80243769329</v>
@@ -1809,7 +1971,7 @@
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>249109.27534004458</v>
@@ -1853,7 +2015,7 @@
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>137259.75950304896</v>
@@ -1897,7 +2059,7 @@
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>106354.16666666667</v>
@@ -1941,7 +2103,7 @@
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>105144.24421953427</v>
@@ -1985,7 +2147,7 @@
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>120524.54244762954</v>
@@ -2029,7 +2191,7 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>179926.59857503607</v>
@@ -2073,7 +2235,7 @@
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>101400.94026974952</v>
@@ -2117,7 +2279,7 @@
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>94403.575615474794</v>
@@ -2161,7 +2323,7 @@
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>108939.57198815324</v>
@@ -2205,7 +2367,7 @@
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>211694.79699438025</v>
@@ -2249,7 +2411,7 @@
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>91787.808011211018</v>
@@ -2293,7 +2455,7 @@
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>151741.45703068198</v>
@@ -2337,7 +2499,7 @@
     </row>
     <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>176411.68914579318</v>
@@ -2381,7 +2543,7 @@
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>105604.33533559676</v>
@@ -2425,7 +2587,7 @@
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>130106.3829787234</v>
@@ -2469,7 +2631,7 @@
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>110730.03802281369</v>
@@ -2521,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D32F39-0DA6-4B55-AD6E-BFC4DE865BB0}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2556,16 +2718,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2573,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
@@ -2590,373 +2752,373 @@
     </row>
     <row r="3" spans="1:9" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>146</v>
+        <v>70</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="H7" s="15" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>122</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>150</v>
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>151</v>
+        <v>67</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2975,388 +3137,685 @@
     <hyperlink ref="I11" r:id="rId11" xr:uid="{2E2A68F5-9664-3A49-B0FD-DD8B87CB0C2F}"/>
     <hyperlink ref="I13" r:id="rId12" xr:uid="{F924D7C5-01BB-6041-9A9E-2B8A56CDBBE6}"/>
     <hyperlink ref="I15" r:id="rId13" xr:uid="{D7C4CA18-F27A-1C49-886B-2D1B02D26A87}"/>
+    <hyperlink ref="F3" r:id="rId14" xr:uid="{80CED4FA-9EC2-0A48-80B3-A3275EDC4A18}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{57A50ACC-7503-4543-9585-9455B8391DB3}"/>
+    <hyperlink ref="F6" r:id="rId16" xr:uid="{1303DB05-4083-0545-A562-A562DDBAA85B}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{7F1F061C-21E2-C84C-ADAD-55E86B13BB09}"/>
+    <hyperlink ref="F4" r:id="rId18" xr:uid="{88F74D76-1E8E-C34D-B8E8-5C9E3ECBCA7C}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{E7A50216-9BA6-0E41-B263-74724908680E}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{9625EAF8-939B-1E42-A80F-73F93B98485D}"/>
+    <hyperlink ref="F8" r:id="rId21" xr:uid="{7C1E2DE8-81F3-7C4E-BBAA-32BB95192154}"/>
+    <hyperlink ref="F11" r:id="rId22" xr:uid="{C9CE7144-4899-8D4F-AA8D-1BF009D96250}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{BA4230BE-C98C-1E47-B8ED-A63FDF3480CF}"/>
+    <hyperlink ref="F10" r:id="rId24" xr:uid="{47347C83-B46A-904B-87D8-16904C5F6CB7}"/>
+    <hyperlink ref="F12" r:id="rId25" xr:uid="{524D739B-ED84-AD40-BD17-08629D6B222A}"/>
+    <hyperlink ref="F15" r:id="rId26" xr:uid="{C3724E32-F63A-6A4E-90DF-18D26715D4D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5"/>
-    <col min="3" max="16384" width="17.5" style="19"/>
+    <col min="1" max="2" width="16.6640625" style="17"/>
+    <col min="3" max="3" width="9.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="16.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="53"/>
+      <c r="B4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
+      <c r="B21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="55"/>
+      <c r="B23" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
+      <c r="B24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
+      <c r="B25" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="56"/>
+      <c r="B40" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="56"/>
+      <c r="B41" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="B42" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="57"/>
+      <c r="B44" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="21">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="57"/>
+      <c r="B45" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="57"/>
+      <c r="B46" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
+      <c r="B50" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
+      <c r="B51" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52"/>
+      <c r="B52" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="21">
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="52"/>
+      <c r="B53" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52"/>
+      <c r="B54" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="21">
+    <row r="61" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="21">
+    <row r="62" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="21">
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21">
+    <row r="64" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="21">
+    <row r="65" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="21">
+    <row r="66" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
